--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -41,58 +41,49 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Sofía</t>
-  </si>
-  <si>
-    <t>Ortega</t>
+    <t>MEME</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>camila.ruiz@gmail.com</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>14/09/2024</t>
+  </si>
+  <si>
+    <t>NEUTRO</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>andres.morales@gmail.com</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>EN VACACIONES</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>sofia.ortega@gmail.com</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>14/09/2024</t>
-  </si>
-  <si>
-    <t>EN VACACIONES</t>
-  </si>
-  <si>
-    <t>Camila</t>
-  </si>
-  <si>
-    <t>Ruiz</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>camila.ruiz@gmail.com</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>NEUTRO</t>
-  </si>
-  <si>
-    <t>Andrés</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>andres.morales@gmail.com</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
   </si>
   <si>
     <t>a@gmail.com</t>
@@ -140,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -183,7 +174,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>3.21321E12</v>
+        <v>2.54645E12</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>11</v>
@@ -192,7 +183,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>1.2352121E7</v>
+        <v>3.2512432E7</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>13</v>
@@ -212,83 +203,54 @@
         <v>17</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>2.54645E12</v>
+        <v>1.32231E12</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="n" s="0">
+        <v>1.4215322E7</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>3.2512432E7</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>20</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="n" s="0">
+        <v>3.025564510103E12</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>1.32231E12</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>18</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>24</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>1.4215322E7</v>
+        <v>1.2124531E7</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>3.025564510103E12</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>1.2124531E7</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -59,22 +59,19 @@
     <t>14/09/2024</t>
   </si>
   <si>
-    <t>NEUTRO</t>
-  </si>
-  <si>
-    <t>Andrés</t>
-  </si>
-  <si>
-    <t>Morales</t>
+    <t>EN VACACIONES</t>
+  </si>
+  <si>
+    <t>luis</t>
+  </si>
+  <si>
+    <t>Jose</t>
   </si>
   <si>
     <t>andres.morales@gmail.com</t>
   </si>
   <si>
     <t>Masculino</t>
-  </si>
-  <si>
-    <t>EN VACACIONES</t>
   </si>
   <si>
     <t>Meme</t>
@@ -221,24 +218,24 @@
         <v>14</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>3.025564510103E12</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>24</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>1.2124531E7</v>
@@ -250,7 +247,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2@gmail.com</t>
+  </si>
+  <si>
+    <t>05/10/2024</t>
+  </si>
+  <si>
+    <t>NEUTRO</t>
   </si>
 </sst>
 </file>
@@ -128,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -250,6 +262,35 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>2.231231231232E12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>2.2222222E7</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Apellido Piloto</t>
   </si>
   <si>
-    <t>Número de DPI</t>
+    <t>DPI</t>
   </si>
   <si>
     <t>Tipo Licencia</t>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Estado</t>
+  </si>
+  <si>
+    <t>Activo</t>
   </si>
   <si>
     <t>MEME</t>
@@ -140,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,121 +177,136 @@
       <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>2.54645E12</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>3.2512432E7</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J2" t="b" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>1.32231E12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>1.4215322E7</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J3" t="b" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>3.025564510103E12</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>1.2124531E7</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J4" t="b" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>2.231231231232E12</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>2.2222222E7</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="J5" t="b" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -44,61 +44,154 @@
     <t>Activo</t>
   </si>
   <si>
-    <t>MEME</t>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ana.martinez@pineed.com</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>10/03/2023</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>carlos.perez@gmail.com</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>23/07/2021</t>
+  </si>
+  <si>
+    <t>INACTIVO</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>maria.fernandez@pineed.com</t>
+  </si>
+  <si>
+    <t>15/06/2022</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>pedro.lopez@pineed.com</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>laura.sanchez@pineed.com</t>
+  </si>
+  <si>
+    <t>08/11/2022</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>jose.ramirez@pineed.com</t>
+  </si>
+  <si>
+    <t>19/09/2021</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>claudia.ortiz@gmail.com</t>
+  </si>
+  <si>
+    <t>25/02/2023</t>
+  </si>
+  <si>
+    <t>Javier</t>
   </si>
   <si>
     <t>Ruiz</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>camila.ruiz@gmail.com</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>14/09/2024</t>
-  </si>
-  <si>
-    <t>EN VACACIONES</t>
-  </si>
-  <si>
-    <t>luis</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>andres.morales@gmail.com</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2@gmail.com</t>
-  </si>
-  <si>
-    <t>05/10/2024</t>
-  </si>
-  <si>
-    <t>NEUTRO</t>
+    <t>javier.ruiz@pineed.com</t>
+  </si>
+  <si>
+    <t>30/05/2022</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>david.castro@pineed.com</t>
+  </si>
+  <si>
+    <t>18/08/2023</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>gabriela.lopez@pineed.com</t>
+  </si>
+  <si>
+    <t>20/04/2023</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>patricia.reyes@pineed.com</t>
+  </si>
+  <si>
+    <t>11/11/2022</t>
   </si>
 </sst>
 </file>
@@ -143,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -189,7 +282,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>2.54645E12</v>
+        <v>1.45678E12</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>12</v>
@@ -198,7 +291,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>3.2512432E7</v>
+        <v>9.8765432E7</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>14</v>
@@ -221,25 +314,25 @@
         <v>18</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>1.32231E12</v>
+        <v>2.45678E12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1.4215322E7</v>
+        <v>1.2345678E7</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J3" t="b" s="0">
         <v>1</v>
@@ -247,65 +340,289 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>3.025564510103E12</v>
+        <v>3.78901E12</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>1.2124531E7</v>
+        <v>8.7654321E7</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>16</v>
       </c>
       <c r="J4" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>2.231231231232E12</v>
+        <v>1.23456E12</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>6.5432189E7</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J5" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>1.6789E12</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F5" t="n" s="0">
-        <v>2.2222222E7</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J5" t="b" s="0">
+      <c r="E6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>5.4321678E7</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J6" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>2.12345E12</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>4.3219876E7</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J7" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>3.56789E12</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>3.2165498E7</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J8" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>4.98765E12</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>2.1987654E7</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J9" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>4.65432E12</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>8.7654321E7</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J10" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>5.4321E12</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>7.654321E7</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J11" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>7.89012E12</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>5.4321098E7</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J12" t="b" s="0">
         <v>1</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="167">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -65,505 +65,454 @@
     <t>JUBILADO</t>
   </si>
   <si>
-    <t>Claudia</t>
+    <t>Dualina</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>paola.gutierrez@gmail.com</t>
+  </si>
+  <si>
+    <t>05/11/2022</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>carlos.morales@gmail.com</t>
+  </si>
+  <si>
+    <t>05/09/2021</t>
+  </si>
+  <si>
+    <t>EN VACACIONES</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>daniela.gomez@gmail.com</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>15/03/2022</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>patricia.vargas@gmail.com</t>
+  </si>
+  <si>
+    <t>30/06/2021</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>jorge.ramirez@gmail.com</t>
+  </si>
+  <si>
+    <t>08/07/2020</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>alejandro.ortega@gmail.com</t>
+  </si>
+  <si>
+    <t>25/10/2021</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>diego.jimenez@gmail.com</t>
+  </si>
+  <si>
+    <t>05/11/2021</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>laura.torres@gmail.com</t>
+  </si>
+  <si>
+    <t>18/12/2023</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>manuel.castro@gmail.com</t>
+  </si>
+  <si>
+    <t>15/03/2020</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>julia.mendoza@gmail.com</t>
+  </si>
+  <si>
+    <t>20/06/2022</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ricardo.hernandez@gmail.com</t>
+  </si>
+  <si>
+    <t>05/09/2023</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>carmen.vazquez@gmail.com</t>
+  </si>
+  <si>
+    <t>Dayana</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>Dominguez</t>
+  </si>
+  <si>
+    <t>hector.dominguez@gmail.com</t>
+  </si>
+  <si>
+    <t>Valeria</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>valeria.perez@gmail.com</t>
+  </si>
+  <si>
+    <t>20/06/2021</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Soto</t>
+  </si>
+  <si>
+    <t>luis.soto@gmail.com</t>
+  </si>
+  <si>
+    <t>05/04/2021</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>isabel.ruiz@gmail.com</t>
+  </si>
+  <si>
+    <t>20/02/2023</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Rios</t>
+  </si>
+  <si>
+    <t>antonio.rios@gmail.com</t>
+  </si>
+  <si>
+    <t>25/12/2020</t>
+  </si>
+  <si>
+    <t>Fernanda</t>
+  </si>
+  <si>
+    <t>Ponce</t>
+  </si>
+  <si>
+    <t>fernanda.ponce@gmail.com</t>
+  </si>
+  <si>
+    <t>12/09/2022</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>francisco.diaz@gmail.com</t>
+  </si>
+  <si>
+    <t>30/06/2023</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Figueroa</t>
+  </si>
+  <si>
+    <t>mariana.figueroa@gmail.com</t>
+  </si>
+  <si>
+    <t>05/11/2020</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>natalia.guzman@gmail.com</t>
+  </si>
+  <si>
+    <t>25/08/2023</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>Navarro</t>
+  </si>
+  <si>
+    <t>raul.navarro@gmail.com</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>diana.reyes@gmail.com</t>
+  </si>
+  <si>
+    <t>05/06/2020</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>fernando.serrano@gmail.com</t>
+  </si>
+  <si>
+    <t>10/01/2021</t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>paulina.vargas@gmail.com</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>juan.ortega@gmail.com</t>
+  </si>
+  <si>
+    <t>08/10/2020</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>carmen.medina@gmail.com</t>
+  </si>
+  <si>
+    <t>15/11/2021</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>luis.flores@gmail.com</t>
+  </si>
+  <si>
+    <t>25/12/2022</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>monica.ramos@gmail.com</t>
+  </si>
+  <si>
+    <t>30/05/2023</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Pineda</t>
+  </si>
+  <si>
+    <t>sergio.pineda@gmail.com</t>
+  </si>
+  <si>
+    <t>05/08/2020</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>valentina.herrera@gmail.com</t>
+  </si>
+  <si>
+    <t>10/03/2021</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>roberto.aguilar@gmail.com</t>
+  </si>
+  <si>
+    <t>25/09/2022</t>
+  </si>
+  <si>
+    <t>daniela.jimenez@gmail.com</t>
+  </si>
+  <si>
+    <t>30/04/2023</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>julian.castro@gmail.com</t>
+  </si>
+  <si>
+    <t>15/07/2021</t>
+  </si>
+  <si>
+    <t>Alicia</t>
+  </si>
+  <si>
+    <t>alicia.morales@gmail.com</t>
+  </si>
+  <si>
+    <t>20/12/2020</t>
   </si>
   <si>
     <t>Ortiz</t>
   </si>
   <si>
-    <t>claudia.ortiz@gmail.com</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>25/02/2023</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
+    <t>francisco.ortiz@gmail.com</t>
+  </si>
+  <si>
+    <t>10/11/2021</t>
   </si>
   <si>
     <t>Gabriela</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>gabriela.lopez@gmail.com</t>
-  </si>
-  <si>
-    <t>20/04/2023</t>
+    <t>Nunez</t>
+  </si>
+  <si>
+    <t>gabriela.nunez@gmail.com</t>
+  </si>
+  <si>
+    <t>Pena</t>
+  </si>
+  <si>
+    <t>diego.pena@gmail.com</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>laura.castillo@gmail.com</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>mario.torres@gmail.com</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>sofia.vargas@gmail.com</t>
+  </si>
+  <si>
+    <t>10/03/2023</t>
   </si>
   <si>
     <t>INACTIVO</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>carlos.morales@gmail.com</t>
-  </si>
-  <si>
-    <t>05/09/2021</t>
-  </si>
-  <si>
-    <t>EN VACACIONES</t>
-  </si>
-  <si>
-    <t>Daniela</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>daniela.gomez@gmail.com</t>
-  </si>
-  <si>
-    <t>15/03/2022</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>Vargas</t>
-  </si>
-  <si>
-    <t>patricia.vargas@gmail.com</t>
-  </si>
-  <si>
-    <t>30/06/2021</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Ramirez</t>
-  </si>
-  <si>
-    <t>jorge.ramirez@gmail.com</t>
-  </si>
-  <si>
-    <t>08/07/2020</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>sofia.morales@gmail.com</t>
-  </si>
-  <si>
-    <t>25/10/2022</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Jimenez</t>
-  </si>
-  <si>
-    <t>diego.jimenez@gmail.com</t>
-  </si>
-  <si>
-    <t>05/11/2021</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Torres</t>
-  </si>
-  <si>
-    <t>laura.torres@gmail.com</t>
-  </si>
-  <si>
-    <t>18/12/2023</t>
-  </si>
-  <si>
-    <t>Manuel</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>manuel.castro@gmail.com</t>
-  </si>
-  <si>
-    <t>15/03/2020</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
-    <t>julia.mendoza@gmail.com</t>
-  </si>
-  <si>
-    <t>20/06/2022</t>
-  </si>
-  <si>
-    <t>Ricardo</t>
-  </si>
-  <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>ricardo.hernandez@gmail.com</t>
-  </si>
-  <si>
-    <t>05/09/2023</t>
-  </si>
-  <si>
-    <t>Carmen</t>
-  </si>
-  <si>
-    <t>Vazquez</t>
-  </si>
-  <si>
-    <t>carmen.vazquez@gmail.com</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Ortega</t>
-  </si>
-  <si>
-    <t>alejandro.ortega@gmail.com</t>
-  </si>
-  <si>
-    <t>25/10/2021</t>
-  </si>
-  <si>
-    <t>Paola</t>
-  </si>
-  <si>
-    <t>Gutierrez</t>
-  </si>
-  <si>
-    <t>paola.gutierrez@gmail.com</t>
-  </si>
-  <si>
-    <t>05/11/2022</t>
-  </si>
-  <si>
-    <t>Hector</t>
-  </si>
-  <si>
-    <t>Dominguez</t>
-  </si>
-  <si>
-    <t>hector.dominguez@gmail.com</t>
-  </si>
-  <si>
-    <t>Valeria</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>valeria.perez@gmail.com</t>
-  </si>
-  <si>
-    <t>20/06/2021</t>
-  </si>
-  <si>
-    <t>Andres</t>
-  </si>
-  <si>
-    <t>Castillo</t>
-  </si>
-  <si>
-    <t>andres.castillo@gmail.com</t>
-  </si>
-  <si>
-    <t>15/05/2020</t>
-  </si>
-  <si>
-    <t>Veronica</t>
-  </si>
-  <si>
-    <t>Mendez</t>
-  </si>
-  <si>
-    <t>veronica.mendez@gmail.com</t>
-  </si>
-  <si>
-    <t>10/10/2022</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Soto</t>
-  </si>
-  <si>
-    <t>luis.soto@gmail.com</t>
-  </si>
-  <si>
-    <t>05/04/2021</t>
-  </si>
-  <si>
-    <t>Isabel</t>
-  </si>
-  <si>
-    <t>Ruiz</t>
-  </si>
-  <si>
-    <t>isabel.ruiz@gmail.com</t>
-  </si>
-  <si>
-    <t>20/02/2023</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Rios</t>
-  </si>
-  <si>
-    <t>antonio.rios@gmail.com</t>
-  </si>
-  <si>
-    <t>25/12/2020</t>
-  </si>
-  <si>
-    <t>Fernanda</t>
-  </si>
-  <si>
-    <t>Ponce</t>
-  </si>
-  <si>
-    <t>fernanda.ponce@gmail.com</t>
-  </si>
-  <si>
-    <t>12/09/2022</t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>Diaz</t>
-  </si>
-  <si>
-    <t>francisco.diaz@gmail.com</t>
-  </si>
-  <si>
-    <t>30/06/2023</t>
-  </si>
-  <si>
-    <t>Mariana</t>
-  </si>
-  <si>
-    <t>Figueroa</t>
-  </si>
-  <si>
-    <t>mariana.figueroa@gmail.com</t>
-  </si>
-  <si>
-    <t>05/11/2020</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>Vega</t>
-  </si>
-  <si>
-    <t>jose.vega@gmail.com</t>
-  </si>
-  <si>
-    <t>10/07/2021</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Guzman</t>
-  </si>
-  <si>
-    <t>natalia.guzman@gmail.com</t>
-  </si>
-  <si>
-    <t>25/08/2023</t>
-  </si>
-  <si>
-    <t>Raul</t>
-  </si>
-  <si>
-    <t>Navarro</t>
-  </si>
-  <si>
-    <t>raul.navarro@gmail.com</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Reyes</t>
-  </si>
-  <si>
-    <t>diana.reyes@gmail.com</t>
-  </si>
-  <si>
-    <t>05/06/2020</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
-    <t>Serrano</t>
-  </si>
-  <si>
-    <t>fernando.serrano@gmail.com</t>
-  </si>
-  <si>
-    <t>10/01/2021</t>
-  </si>
-  <si>
-    <t>Paulina</t>
-  </si>
-  <si>
-    <t>paulina.vargas@gmail.com</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>juan.ortega@gmail.com</t>
-  </si>
-  <si>
-    <t>08/10/2020</t>
-  </si>
-  <si>
-    <t>Medina</t>
-  </si>
-  <si>
-    <t>carmen.medina@gmail.com</t>
-  </si>
-  <si>
-    <t>15/11/2021</t>
-  </si>
-  <si>
-    <t>Flores</t>
-  </si>
-  <si>
-    <t>luis.flores@gmail.com</t>
-  </si>
-  <si>
-    <t>25/12/2022</t>
-  </si>
-  <si>
-    <t>Monica</t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>monica.ramos@gmail.com</t>
-  </si>
-  <si>
-    <t>30/05/2023</t>
-  </si>
-  <si>
-    <t>Sergio</t>
-  </si>
-  <si>
-    <t>Pineda</t>
-  </si>
-  <si>
-    <t>sergio.pineda@gmail.com</t>
-  </si>
-  <si>
-    <t>05/08/2020</t>
-  </si>
-  <si>
-    <t>Valentina</t>
-  </si>
-  <si>
-    <t>Herrera</t>
-  </si>
-  <si>
-    <t>valentina.herrera@gmail.com</t>
-  </si>
-  <si>
-    <t>10/03/2021</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Aguilar</t>
-  </si>
-  <si>
-    <t>roberto.aguilar@gmail.com</t>
-  </si>
-  <si>
-    <t>25/09/2022</t>
-  </si>
-  <si>
-    <t>daniela.jimenez@gmail.com</t>
-  </si>
-  <si>
-    <t>30/04/2023</t>
-  </si>
-  <si>
-    <t>Julian</t>
-  </si>
-  <si>
-    <t>julian.castro@gmail.com</t>
-  </si>
-  <si>
-    <t>15/07/2021</t>
-  </si>
-  <si>
-    <t>Alicia</t>
-  </si>
-  <si>
-    <t>alicia.morales@gmail.com</t>
-  </si>
-  <si>
-    <t>20/12/2020</t>
-  </si>
-  <si>
-    <t>francisco.ortiz@gmail.com</t>
-  </si>
-  <si>
-    <t>10/11/2021</t>
-  </si>
-  <si>
-    <t>Nunez</t>
-  </si>
-  <si>
-    <t>gabriela.nunez@gmail.com</t>
-  </si>
-  <si>
-    <t>Pena</t>
-  </si>
-  <si>
-    <t>diego.pena@gmail.com</t>
-  </si>
-  <si>
-    <t>laura.castillo@gmail.com</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>mario.torres@gmail.com</t>
-  </si>
-  <si>
-    <t>sofia.vargas@gmail.com</t>
-  </si>
-  <si>
-    <t>10/03/2023</t>
   </si>
 </sst>
 </file>
@@ -608,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -689,16 +638,16 @@
         <v>3.56789E12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>3.2165498E7</v>
+        <v>7.654321E7</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>21</v>
@@ -715,28 +664,28 @@
         <v>23</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>5.4321E12</v>
+        <v>6.78901E12</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>25</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>7.654321E7</v>
+        <v>9.8761234E7</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>26</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J4" t="b" s="0">
         <v>1</v>
@@ -750,25 +699,25 @@
         <v>29</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>6.78901E12</v>
+        <v>9.23456E12</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>9.8761234E7</v>
+        <v>3.2165489E7</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J5" t="b" s="0">
         <v>1</v>
@@ -782,19 +731,19 @@
         <v>34</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>9.23456E12</v>
+        <v>2.98765E13</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>3.2165489E7</v>
+        <v>3.2165467E7</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>36</v>
@@ -814,7 +763,7 @@
         <v>38</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>2.98765E13</v>
+        <v>1.12345E12</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>12</v>
@@ -823,10 +772,10 @@
         <v>39</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>3.2165467E7</v>
+        <v>9.8765432E7</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>40</v>
@@ -846,7 +795,7 @@
         <v>42</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>1.12345E12</v>
+        <v>5.6789E12</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>12</v>
@@ -875,22 +824,22 @@
         <v>45</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>5.6789E12</v>
+        <v>8.91234E12</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>7.654321E7</v>
+        <v>6.5432189E7</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s" s="0">
         <v>48</v>
@@ -910,16 +859,16 @@
         <v>50</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>8.91234E12</v>
+        <v>2.56789E12</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>51</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>6.5432189E7</v>
+        <v>3.2165498E7</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>14</v>
@@ -928,10 +877,10 @@
         <v>52</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="J10" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -942,19 +891,19 @@
         <v>54</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>2.56789E12</v>
+        <v>4.6789E12</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>55</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>3.2165498E7</v>
+        <v>9.8765432E7</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s" s="0">
         <v>56</v>
@@ -974,28 +923,28 @@
         <v>58</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>4.6789E12</v>
+        <v>7.12345E12</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>59</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>9.8765432E7</v>
+        <v>8.7654321E7</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>60</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="J12" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1006,22 +955,22 @@
         <v>62</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>7.12345E12</v>
+        <v>9.45678E12</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>8.7654321E7</v>
+        <v>6.5432189E7</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s" s="0">
         <v>22</v>
@@ -1032,28 +981,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>9.45678E12</v>
+        <v>1.23456E13</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>6.5432189E7</v>
+        <v>3.2165498E7</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s" s="0">
         <v>22</v>
@@ -1064,28 +1013,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>1.23456E13</v>
+        <v>5.6789E12</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>3.2165498E7</v>
+        <v>9.8765432E7</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s" s="0">
         <v>22</v>
@@ -1096,28 +1045,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>5.6789E12</v>
+        <v>3.56789E12</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>9.8765432E7</v>
+        <v>7.654321E7</v>
       </c>
       <c r="G16" t="s" s="0">
         <v>14</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s" s="0">
         <v>22</v>
@@ -1128,28 +1077,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>3.56789E12</v>
+        <v>9.23456E12</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>7.654321E7</v>
+        <v>6.5432189E7</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s" s="0">
         <v>22</v>
@@ -1160,28 +1109,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>9.23456E12</v>
+        <v>7.45678E12</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>6.5432189E7</v>
+        <v>3.2165498E7</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="0">
         <v>22</v>
@@ -1192,28 +1141,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>7.45678E12</v>
+        <v>3.34567E12</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>3.2165498E7</v>
+        <v>6.5432189E7</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="0">
         <v>22</v>
@@ -1224,28 +1173,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>1.12345E13</v>
+        <v>4.45678E12</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>9.8765432E7</v>
+        <v>3.2165498E7</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s" s="0">
         <v>22</v>
@@ -1256,28 +1205,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>2.23456E12</v>
+        <v>5.56789E12</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F21" t="n" s="0">
-        <v>8.7654321E7</v>
+        <v>9.8765432E7</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="0">
         <v>22</v>
@@ -1288,28 +1237,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>3.34567E12</v>
+        <v>6.6789E12</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F22" t="n" s="0">
-        <v>6.5432189E7</v>
+        <v>7.654321E7</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s" s="0">
         <v>22</v>
@@ -1320,28 +1269,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>4.45678E12</v>
+        <v>7.78901E12</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F23" t="n" s="0">
-        <v>3.2165498E7</v>
+        <v>6.5432189E7</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s" s="0">
         <v>22</v>
@@ -1352,28 +1301,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>5.56789E12</v>
+        <v>8.89012E12</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F24" t="n" s="0">
-        <v>9.8765432E7</v>
+        <v>3.2165498E7</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s" s="0">
         <v>22</v>
@@ -1384,28 +1333,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>6.6789E12</v>
+        <v>1.01234E13</v>
       </c>
       <c r="D25" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F25" t="n" s="0">
         <v>7.654321E7</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s" s="0">
         <v>22</v>
@@ -1416,19 +1365,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>7.78901E12</v>
+        <v>1.12345E13</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F26" t="n" s="0">
         <v>6.5432189E7</v>
@@ -1437,7 +1386,7 @@
         <v>14</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s" s="0">
         <v>22</v>
@@ -1448,28 +1397,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>8.89012E12</v>
+        <v>2.23456E12</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F27" t="n" s="0">
         <v>3.2165498E7</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I27" t="s" s="0">
         <v>22</v>
@@ -1480,19 +1429,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>9.90123E12</v>
+        <v>3.34567E12</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F28" t="n" s="0">
         <v>9.8765432E7</v>
@@ -1501,7 +1450,7 @@
         <v>14</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I28" t="s" s="0">
         <v>22</v>
@@ -1512,28 +1461,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>1.01234E13</v>
+        <v>4.45678E12</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F29" t="n" s="0">
-        <v>7.654321E7</v>
+        <v>8.7654321E7</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s" s="0">
         <v>22</v>
@@ -1544,19 +1493,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>1.12345E13</v>
+        <v>5.56789E12</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F30" t="n" s="0">
         <v>6.5432189E7</v>
@@ -1565,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="I30" t="s" s="0">
         <v>22</v>
@@ -1576,28 +1525,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>2.23456E12</v>
+        <v>6.6789E12</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F31" t="n" s="0">
         <v>3.2165498E7</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I31" t="s" s="0">
         <v>22</v>
@@ -1608,19 +1557,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>3.34567E12</v>
+        <v>7.78901E12</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F32" t="n" s="0">
         <v>9.8765432E7</v>
@@ -1629,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I32" t="s" s="0">
         <v>22</v>
@@ -1640,28 +1589,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>4.45678E12</v>
+        <v>8.89012E12</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F33" t="n" s="0">
-        <v>8.7654321E7</v>
+        <v>7.654321E7</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="I33" t="s" s="0">
         <v>22</v>
@@ -1672,19 +1621,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>5.56789E12</v>
+        <v>9.90123E12</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F34" t="n" s="0">
         <v>6.5432189E7</v>
@@ -1693,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I34" t="s" s="0">
         <v>22</v>
@@ -1704,28 +1653,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>6.6789E12</v>
+        <v>1.01234E13</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F35" t="n" s="0">
         <v>3.2165498E7</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I35" t="s" s="0">
         <v>22</v>
@@ -1736,19 +1685,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>7.78901E12</v>
+        <v>1.12345E13</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F36" t="n" s="0">
         <v>9.8765432E7</v>
@@ -1757,7 +1706,7 @@
         <v>14</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I36" t="s" s="0">
         <v>22</v>
@@ -1768,28 +1717,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>8.89012E12</v>
+        <v>2.23456E12</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F37" t="n" s="0">
         <v>7.654321E7</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I37" t="s" s="0">
         <v>22</v>
@@ -1800,19 +1749,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>9.90123E12</v>
+        <v>3.34567E12</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F38" t="n" s="0">
         <v>6.5432189E7</v>
@@ -1821,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I38" t="s" s="0">
         <v>22</v>
@@ -1832,28 +1781,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>1.01234E13</v>
+        <v>4.45678E12</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F39" t="n" s="0">
         <v>3.2165498E7</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I39" t="s" s="0">
         <v>22</v>
@@ -1864,19 +1813,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>1.12345E13</v>
+        <v>5.56789E12</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F40" t="n" s="0">
         <v>9.8765432E7</v>
@@ -1885,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I40" t="s" s="0">
         <v>22</v>
@@ -1896,28 +1845,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>2.23456E12</v>
+        <v>6.6789E12</v>
       </c>
       <c r="D41" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F41" t="n" s="0">
         <v>7.654321E7</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="I41" t="s" s="0">
         <v>22</v>
@@ -1928,19 +1877,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>3.34567E12</v>
+        <v>7.78901E12</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F42" t="n" s="0">
         <v>6.5432189E7</v>
@@ -1949,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="I42" t="s" s="0">
         <v>22</v>
@@ -1960,28 +1909,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>4.45678E12</v>
+        <v>8.89012E12</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F43" t="n" s="0">
         <v>3.2165498E7</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="I43" t="s" s="0">
         <v>22</v>
@@ -1992,19 +1941,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>5.56789E12</v>
+        <v>9.90123E12</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F44" t="n" s="0">
         <v>9.8765432E7</v>
@@ -2013,7 +1962,7 @@
         <v>14</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="I44" t="s" s="0">
         <v>22</v>
@@ -2024,161 +1973,33 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>6.6789E12</v>
+        <v>1.01234E13</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F45" t="n" s="0">
         <v>7.654321E7</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="I45" t="s" s="0">
         <v>22</v>
       </c>
       <c r="J45" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="C46" t="n" s="0">
-        <v>7.78901E12</v>
-      </c>
-      <c r="D46" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="E46" t="s" s="0">
-        <v>178</v>
-      </c>
-      <c r="F46" t="n" s="0">
-        <v>6.5432189E7</v>
-      </c>
-      <c r="G46" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H46" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="I46" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="J46" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C47" t="n" s="0">
-        <v>8.89012E12</v>
-      </c>
-      <c r="D47" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E47" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="F47" t="n" s="0">
-        <v>3.2165498E7</v>
-      </c>
-      <c r="G47" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H47" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="I47" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="J47" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C48" t="n" s="0">
-        <v>9.90123E12</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="F48" t="n" s="0">
-        <v>9.8765432E7</v>
-      </c>
-      <c r="G48" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H48" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="I48" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="J48" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C49" t="n" s="0">
-        <v>1.01234E13</v>
-      </c>
-      <c r="D49" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="E49" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="F49" t="n" s="0">
-        <v>7.654321E7</v>
-      </c>
-      <c r="G49" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H49" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="I49" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="J49" t="b" s="0">
         <v>1</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517AAE04-8B96-4B9E-B58C-3302BAD7E714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89558E07-16CE-438A-90FE-9D064502FCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -70,45 +70,42 @@
     <t>10/03/2023</t>
   </si>
   <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>carlos.perez@gmail.com</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>23/07/2021</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>maria.fernandez@pineed.com</t>
+  </si>
+  <si>
+    <t>15/06/2022</t>
+  </si>
+  <si>
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>carlos.perez@gmail.com</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>23/07/2021</t>
-  </si>
-  <si>
-    <t>INACTIVO</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Fernandez</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>maria.fernandez@pineed.com</t>
-  </si>
-  <si>
-    <t>15/06/2022</t>
-  </si>
-  <si>
     <t>Pedro</t>
   </si>
   <si>
@@ -139,7 +136,7 @@
     <t>Ramirez</t>
   </si>
   <si>
-    <t>jose.ramirez@pineed.com</t>
+    <t>jose.ramirez@gmail.com</t>
   </si>
   <si>
     <t>19/09/2021</t>
@@ -574,13 +571,10 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -640,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -648,31 +642,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
       <c r="C3">
         <v>2456780000000</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
       <c r="F3">
         <v>12345678</v>
       </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -680,19 +674,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>3789010000000</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>87654321</v>
@@ -701,10 +695,10 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -712,10 +706,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
       </c>
       <c r="C5">
         <v>1234560000000</v>
@@ -724,19 +718,19 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>65432189</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -744,19 +738,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
       </c>
       <c r="C6">
         <v>1678900000000</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>54321678</v>
@@ -765,10 +759,10 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -776,31 +770,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
       </c>
       <c r="C7">
         <v>2123450000000</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>43219876</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -808,10 +802,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
       </c>
       <c r="C8">
         <v>3567890000000</v>
@@ -820,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>32165498</v>
@@ -829,10 +823,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -840,31 +834,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
       </c>
       <c r="C9">
         <v>4987650000000</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9">
         <v>21987654</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -872,10 +866,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
       </c>
       <c r="C10">
         <v>4654320000000</v>
@@ -884,19 +878,19 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>87654321</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -904,19 +898,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>5432100000000</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>76543210</v>
@@ -925,10 +919,10 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -936,10 +930,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
       </c>
       <c r="C12">
         <v>7890120000000</v>
@@ -948,7 +942,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12">
         <v>54321098</v>
@@ -957,10 +951,10 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>

--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89558E07-16CE-438A-90FE-9D064502FCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE9FDE5-C5B0-4532-96F4-C3CAB1E4B40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -52,115 +52,79 @@
     <t>Activo</t>
   </si>
   <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Martinez</t>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>maria.fernandez@gmail.com</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>15/06/2022</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Lopez</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>ana.martinez@pineed.com</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>10/03/2023</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Perez</t>
+    <t>pedro.lopez@gmail.com</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>laura.sanchez@gmail.com</t>
+  </si>
+  <si>
+    <t>08/11/2022</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>carlos.perez@gmail.com</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>23/07/2021</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Fernandez</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>maria.fernandez@pineed.com</t>
-  </si>
-  <si>
-    <t>15/06/2022</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>pedro.lopez@pineed.com</t>
-  </si>
-  <si>
-    <t>12/12/2020</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>laura.sanchez@pineed.com</t>
-  </si>
-  <si>
-    <t>08/11/2022</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>Ramirez</t>
-  </si>
-  <si>
     <t>jose.ramirez@gmail.com</t>
   </si>
   <si>
     <t>19/09/2021</t>
   </si>
   <si>
-    <t>Claudia</t>
-  </si>
-  <si>
-    <t>Ortiz</t>
-  </si>
-  <si>
-    <t>claudia.ortiz@gmail.com</t>
-  </si>
-  <si>
-    <t>25/02/2023</t>
-  </si>
-  <si>
     <t>Javier</t>
   </si>
   <si>
     <t>Ruiz</t>
   </si>
   <si>
-    <t>javier.ruiz@pineed.com</t>
+    <t>javier.ruiz@gmail.com</t>
   </si>
   <si>
     <t>30/05/2022</t>
@@ -172,7 +136,7 @@
     <t>Castro</t>
   </si>
   <si>
-    <t>david.castro@pineed.com</t>
+    <t>david.castro@gmail.com</t>
   </si>
   <si>
     <t>18/08/2023</t>
@@ -181,22 +145,10 @@
     <t>Gabriela</t>
   </si>
   <si>
-    <t>gabriela.lopez@pineed.com</t>
+    <t>gabriela.lopez@gmail.com</t>
   </si>
   <si>
     <t>20/04/2023</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>Reyes</t>
-  </si>
-  <si>
-    <t>patricia.reyes@pineed.com</t>
-  </si>
-  <si>
-    <t>11/11/2022</t>
   </si>
 </sst>
 </file>
@@ -568,13 +520,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -616,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1456780000000</v>
+        <v>3789010002000</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -625,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>98765432</v>
+        <v>59595959</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -634,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -642,31 +598,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1234560000033</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>52525252</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>2456780000000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>12345678</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -674,22 +630,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>3789010000000</v>
+        <v>1678900040000</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4">
-        <v>87654321</v>
+        <v>36363636</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -698,7 +654,7 @@
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -706,31 +662,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>2123450002000</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
-      </c>
-      <c r="C5">
-        <v>1234560000000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5">
-        <v>65432189</v>
+        <v>66666666</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -744,25 +700,25 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>1678900000000</v>
+        <v>4987650330000</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6">
-        <v>54321678</v>
+        <v>14141414</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -776,25 +732,25 @@
         <v>37</v>
       </c>
       <c r="C7">
-        <v>2123450000000</v>
+        <v>4654320004400</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
       </c>
       <c r="F7">
-        <v>43219876</v>
+        <v>20202020</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -805,158 +761,30 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>5432101000000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="C8">
-        <v>3567890000000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
       <c r="F8">
-        <v>32165498</v>
+        <v>78787968</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9">
-        <v>4987650000000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9">
-        <v>21987654</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10">
-        <v>4654320000000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>87654321</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>5432100000000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11">
-        <v>76543210</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12">
-        <v>7890120000000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12">
-        <v>54321098</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" t="b">
         <v>1</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programacion 3\proyecto\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C072579F-3765-4302-B709-653CFACE5EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="1488" windowWidth="22812" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pilotos" r:id="rId3" sheetId="1"/>
+    <sheet name="Pilotos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -87,18 +95,21 @@
   </si>
   <si>
     <t>10/10/2005</t>
+  </si>
+  <si>
+    <t>INACTIVO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,7 +119,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -126,18 +137,348 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -169,15 +510,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C2" t="n" s="0">
-        <v>2.222101E12</v>
+      <c r="C2" s="0">
+        <v>2222101000000</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>12</v>
@@ -185,8 +526,8 @@
       <c r="E2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>3.3387968E7</v>
+      <c r="F2" s="0">
+        <v>33387968</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>14</v>
@@ -201,15 +542,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>3.333101000022E12</v>
+      <c r="C3" s="0">
+        <v>3333101000022</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>12</v>
@@ -217,8 +558,8 @@
       <c r="E3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="F3" t="n" s="0">
-        <v>7.8722968E7</v>
+      <c r="F3" s="0">
+        <v>78722968</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>14</v>
@@ -227,21 +568,21 @@
         <v>20</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J3" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>21</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>3.025564510103E12</v>
+      <c r="C4" s="0">
+        <v>3025564510103</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>12</v>
@@ -249,8 +590,8 @@
       <c r="E4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F4" t="n" s="0">
-        <v>1.0404065E7</v>
+      <c r="F4" s="0">
+        <v>10404065</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>14</v>
@@ -266,6 +607,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -568,10 +568,10 @@
         <v>20</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J3" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">

--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -536,10 +536,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J2" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">

--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>10/10/2005</t>
+  </si>
+  <si>
+    <t>INACTIVO</t>
   </si>
 </sst>
 </file>
@@ -195,10 +198,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J2" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -227,10 +230,10 @@
         <v>20</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J3" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">

--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -53,7 +53,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>agon@gmail.com</t>
+    <t>memegonzalezcorado@gmail.com</t>
   </si>
   <si>
     <t>Masculino</t>
@@ -65,31 +65,25 @@
     <t>ACTIVO</t>
   </si>
   <si>
+    <t>José Manuel</t>
+  </si>
+  <si>
+    <t>González Corado</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10/10/2005</t>
+  </si>
+  <si>
     <t>Luis</t>
   </si>
   <si>
     <t>Corado</t>
   </si>
   <si>
-    <t>gon@gmail.com</t>
-  </si>
-  <si>
     <t>20/04/2001</t>
-  </si>
-  <si>
-    <t>José Manuel</t>
-  </si>
-  <si>
-    <t>González Corado</t>
-  </si>
-  <si>
-    <t>memegonzalezcorado@gmail.com</t>
-  </si>
-  <si>
-    <t>10/10/2005</t>
-  </si>
-  <si>
-    <t>INACTIVO</t>
   </si>
 </sst>
 </file>
@@ -198,10 +192,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J2" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -212,7 +206,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>3.333101000022E12</v>
+        <v>3.025564510103E12</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>12</v>
@@ -221,7 +215,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>7.8722968E7</v>
+        <v>1.0404065E7</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>14</v>
@@ -230,10 +224,10 @@
         <v>20</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J3" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -244,22 +238,22 @@
         <v>22</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>3.025564510103E12</v>
+        <v>3.333101000022E12</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>1.0404065E7</v>
+        <v>7.8722968E7</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>16</v>

--- a/ProyectoPooDist/excels/PINEED.xlsx
+++ b/ProyectoPooDist/excels/PINEED.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="137">
   <si>
     <t>Nombre Piloto</t>
   </si>
@@ -44,43 +44,295 @@
     <t>Activo</t>
   </si>
   <si>
-    <t>Valeria</t>
-  </si>
-  <si>
-    <t>Gómez</t>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>carmen.vazquez@gmail.com</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>Dominguez</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>hector.dominguez@gmail.com</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>18/12/2023</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>isabel.ruiz@gmail.com</t>
+  </si>
+  <si>
+    <t>20/02/2023</t>
+  </si>
+  <si>
+    <t>Fernanda</t>
+  </si>
+  <si>
+    <t>Ponce</t>
+  </si>
+  <si>
+    <t>fernanda.ponce@gmail.com</t>
+  </si>
+  <si>
+    <t>12/09/2022</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Diaz</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>valeria.gomez@gmail.com</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>30/03/2021</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>pablo.martinez@gmail.com</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>12/10/2020</t>
+    <t>francisco.diaz@gmail.com</t>
+  </si>
+  <si>
+    <t>30/06/2023</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Figueroa</t>
+  </si>
+  <si>
+    <t>mariana.figueroa@gmail.com</t>
+  </si>
+  <si>
+    <t>05/11/2020</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>natalia.guzman@gmail.com</t>
+  </si>
+  <si>
+    <t>25/08/2023</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>Navarro</t>
+  </si>
+  <si>
+    <t>raul.navarro@gmail.com</t>
+  </si>
+  <si>
+    <t>15/03/2022</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>diana.reyes@gmail.com</t>
+  </si>
+  <si>
+    <t>05/06/2020</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>fernando.serrano@gmail.com</t>
+  </si>
+  <si>
+    <t>10/01/2021</t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>paulina.vargas@gmail.com</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>juan.ortega@gmail.com</t>
+  </si>
+  <si>
+    <t>08/10/2020</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>carmen.medina@gmail.com</t>
+  </si>
+  <si>
+    <t>15/11/2021</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>luis.flores@gmail.com</t>
+  </si>
+  <si>
+    <t>25/12/2022</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>monica.ramos@gmail.com</t>
+  </si>
+  <si>
+    <t>30/05/2023</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Pineda</t>
+  </si>
+  <si>
+    <t>sergio.pineda@gmail.com</t>
+  </si>
+  <si>
+    <t>05/08/2020</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>valentina.herrera@gmail.com</t>
+  </si>
+  <si>
+    <t>10/03/2021</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>roberto.aguilar@gmail.com</t>
+  </si>
+  <si>
+    <t>25/09/2022</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>daniela.jimenez@gmail.com</t>
+  </si>
+  <si>
+    <t>30/04/2023</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>julian.castro@gmail.com</t>
+  </si>
+  <si>
+    <t>15/07/2021</t>
+  </si>
+  <si>
+    <t>Alicia</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>alicia.morales@gmail.com</t>
+  </si>
+  <si>
+    <t>20/12/2020</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>francisco.ortiz@gmail.com</t>
+  </si>
+  <si>
+    <t>10/11/2021</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Nunez</t>
+  </si>
+  <si>
+    <t>gabriela.nunez@gmail.com</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Pena</t>
+  </si>
+  <si>
+    <t>diego.pena@gmail.com</t>
   </si>
   <si>
     <t>Laura</t>
@@ -89,49 +341,85 @@
     <t>Castillo</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>laura.castillo@gmail.com</t>
   </si>
   <si>
-    <t>19/08/2022</t>
-  </si>
-  <si>
-    <t>Lucía</t>
-  </si>
-  <si>
-    <t>García</t>
-  </si>
-  <si>
-    <t>lucia.garcia@gmail.com</t>
-  </si>
-  <si>
-    <t>11/06/2023</t>
-  </si>
-  <si>
-    <t>Raúl</t>
-  </si>
-  <si>
-    <t>Méndez</t>
-  </si>
-  <si>
-    <t>raul.mendez@gmail.com</t>
-  </si>
-  <si>
-    <t>09/09/2022</t>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>mario.torres@gmail.com</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>sofia.vargas@gmail.com</t>
+  </si>
+  <si>
+    <t>10/03/2023</t>
   </si>
   <si>
     <t>Pedro</t>
   </si>
   <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>pedro.morales@gmail.com</t>
-  </si>
-  <si>
-    <t>14/12/2020</t>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>pedro.lopez@gmail.com</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Rios</t>
+  </si>
+  <si>
+    <t>antonio.rios@gmail.com</t>
+  </si>
+  <si>
+    <t>25/12/2020</t>
+  </si>
+  <si>
+    <t>Dualina</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>paola.gutierrez@gmail.com</t>
+  </si>
+  <si>
+    <t>05/11/2022</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>daniela.gomez@gmail.com</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>jorge.ramirez@gmail.com</t>
+  </si>
+  <si>
+    <t>08/07/2020</t>
+  </si>
+  <si>
+    <t>Soto</t>
+  </si>
+  <si>
+    <t>luis.soto@gmail.com</t>
+  </si>
+  <si>
+    <t>05/04/2021</t>
   </si>
   <si>
     <t>INACTIVO</t>
@@ -179,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -225,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>7.15E12</v>
+        <v>1.23456E13</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>12</v>
@@ -234,7 +522,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>7.6533211E7</v>
+        <v>3.2165498E7</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>14</v>
@@ -257,7 +545,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>5.89E12</v>
+        <v>9.23456E12</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>19</v>
@@ -266,7 +554,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>9.7444322E7</v>
+        <v>6.5432189E7</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>21</v>
@@ -289,22 +577,22 @@
         <v>24</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>6.23E12</v>
+        <v>4.45678E12</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>26</v>
-      </c>
       <c r="F4" t="n" s="0">
-        <v>8.8311234E7</v>
+        <v>3.2165498E7</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>16</v>
@@ -315,28 +603,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="C5" t="n" s="0">
-        <v>5.55E12</v>
+        <v>6.6789E12</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>9.8444122E7</v>
+        <v>7.654321E7</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>14</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>16</v>
@@ -347,22 +635,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="n" s="0">
+        <v>7.78901E12</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>33</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>6.44E12</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>25</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>34</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>8.7321123E7</v>
+        <v>6.5432189E7</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>21</v>
@@ -385,27 +673,891 @@
         <v>37</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>7.29E12</v>
+        <v>8.89012E12</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>38</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>7.6122345E7</v>
+        <v>3.2165498E7</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>39</v>
       </c>
       <c r="I7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J7" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="J7" t="b" s="0">
+      <c r="B8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>1.01234E13</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>7.654321E7</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J8" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>1.12345E13</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>6.5432189E7</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J9" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>2.23456E12</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>3.2165498E7</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J10" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>3.34567E12</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>9.8765432E7</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J11" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>4.45678E12</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>8.7654321E7</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J12" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>5.56789E12</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>6.5432189E7</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J13" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>6.6789E12</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>3.2165498E7</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J14" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>7.78901E12</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>9.8765432E7</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J15" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>8.89012E12</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>7.654321E7</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J16" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>9.90123E12</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>6.5432189E7</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J17" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>1.01234E13</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>3.2165498E7</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J18" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>1.12345E13</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>9.8765432E7</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J19" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>2.23456E12</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>7.654321E7</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J20" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>3.34567E12</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>6.5432189E7</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J21" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>4.45678E12</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>3.2165498E7</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J22" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>5.56789E12</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>9.8765432E7</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J23" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>6.6789E12</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>7.654321E7</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J24" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>7.78901E12</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="F25" t="n" s="0">
+        <v>6.5432189E7</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J25" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>8.89012E12</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F26" t="n" s="0">
+        <v>3.2165498E7</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J26" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>9.90123E12</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="F27" t="n" s="0">
+        <v>9.8765432E7</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J27" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>1.01234E13</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="F28" t="n" s="0">
+        <v>7.654321E7</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J28" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>1.23456E12</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>6.5432189E7</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J29" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>5.56789E12</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="F30" t="n" s="0">
+        <v>9.8765432E7</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J30" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>3.56789E12</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>7.654321E7</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J31" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>9.23456E12</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F32" t="n" s="0">
+        <v>3.2165489E7</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J32" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>1.12345E12</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="F33" t="n" s="0">
+        <v>9.8765432E7</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J33" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>3.34567E12</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="F34" t="n" s="0">
+        <v>6.5432189E7</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J34" t="b" s="0">
         <v>0</v>
       </c>
     </row>
